--- a/medicine/Enfance/Recrue_(court_métrage)/Recrue_(court_métrage).xlsx
+++ b/medicine/Enfance/Recrue_(court_métrage)/Recrue_(court_métrage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Recrue_(court_m%C3%A9trage)</t>
+          <t>Recrue_(court_métrage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Recrue est un court métrage canadien écrit et réalisé par Pier-Philippe Chevigny, mettant en vedette Émile Schneider et Jean-Nicolas Verreault.
-Le film a été présenté en première mondiale le 7 septembre 2019 au Festival international du film de Toronto 2019[1].
+Le film a été présenté en première mondiale le 7 septembre 2019 au Festival international du film de Toronto 2019.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Recrue_(court_m%C3%A9trage)</t>
+          <t>Recrue_(court_métrage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">S’il ne s’était pas enfoncé si loin en jouant dans la forêt, Alex, 6 ans, n’aurait sans doute gardé qu’un souvenir flou des mystérieuses patrouilles que menait le groupuscule réactionnaire de son père. Ce matin-là, tout est devenu clair.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Recrue_(court_m%C3%A9trage)</t>
+          <t>Recrue_(court_métrage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Recrue
 Titre anglais : Rebel
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Recrue_(court_m%C3%A9trage)</t>
+          <t>Recrue_(court_métrage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,7 +606,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Édouard B. Larocque : Alex
 Émile Schneider : Dave
@@ -609,7 +627,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Recrue_(court_m%C3%A9trage)</t>
+          <t>Recrue_(court_métrage)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -627,11 +645,13 @@
           <t>Inspiration</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le film est inspiré de la montée de l'extrémisme de droite au Québec à la suite de la vague d'immigration de 2017 à 2020, alors que des milliers de personnes ont fui les États-Unis pour éviter la déportation et ont traversé la frontière « illégalement » dans la belle province[2]. Les milices de droite ont alors organisé des manifestations dans les villes et à la frontière[3],[4],[5],[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le film est inspiré de la montée de l'extrémisme de droite au Québec à la suite de la vague d'immigration de 2017 à 2020, alors que des milliers de personnes ont fui les États-Unis pour éviter la déportation et ont traversé la frontière « illégalement » dans la belle province. Les milices de droite ont alors organisé des manifestations dans les villes et à la frontière.
 Le réalisateur faisait des recherches sur le sujet lorsqu'il a vu l'image d'un jeune garçon tenant un drapeau d'une de ces milices en tête d'un article sur les groupes extrémistes. Il a affirmé en entrevue avoir pensé à ce moment : 
-Ce garçon ne comprend pas la politique cachée derrière tout cela, il ne fait que suivre ses parents. Ce serait un point de départ intéressant pour raconter une histoire[7],[8],[9].</t>
+Ce garçon ne comprend pas la politique cachée derrière tout cela, il ne fait que suivre ses parents. Ce serait un point de départ intéressant pour raconter une histoire.</t>
         </is>
       </c>
     </row>
@@ -641,7 +661,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Recrue_(court_m%C3%A9trage)</t>
+          <t>Recrue_(court_métrage)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -659,22 +679,24 @@
           <t>Festivals et récompenses</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le film a été présenté en première mondiale au Festival international du film de Toronto le 7 septembre 2019[1]. Il a ensuite eu sa première européenne au Festival du Film Francophone de Namur le 28 septembre 2019[10].
-Golden Owl du Meilleur court métrage, Tirana International Film Festival 2020[11]
-Prix Golden Spike du Meilleur court métrage, Social World Film Festival 2020[9]
-Prix SARTEC, Gala Prends ca court! 2020[12]
-Prix du public, PRINDIE - Princeton Independent Film Festival 2020[13]
-Prix du public, DC Shorts Film Festival 2020[14]
-Golden Gaja du Meilleur court métrage, kidzCINEMA 2020[15]
-Prix Choix du Réalisateur pour la Meilleure Direction de la Photographie, Rincon International Film Festival 2020[16]
-Ines Feghouli - Meilleure actrice dans un court métrage : Catégorie 5-9 ans, Joey Awards 2020[17]
-Meilleur court métrage, Meilleure direction de la photographie et Meilleur montage, Roma Prisma Independent Film Awards 2020[18]
-Meilleur film du mois, European Cinematography Awards, October 2020[19]
-Meilleur film du mois, New York Cinematography Awards, October 2020[20]
-Meilleur court métrage, Canadian Cinematography Awards, October 2020[21]
-Prix d'or du Meilleur court métrage, Social Justice Film Festival 2020[22]</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le film a été présenté en première mondiale au Festival international du film de Toronto le 7 septembre 2019. Il a ensuite eu sa première européenne au Festival du Film Francophone de Namur le 28 septembre 2019.
+Golden Owl du Meilleur court métrage, Tirana International Film Festival 2020
+Prix Golden Spike du Meilleur court métrage, Social World Film Festival 2020
+Prix SARTEC, Gala Prends ca court! 2020
+Prix du public, PRINDIE - Princeton Independent Film Festival 2020
+Prix du public, DC Shorts Film Festival 2020
+Golden Gaja du Meilleur court métrage, kidzCINEMA 2020
+Prix Choix du Réalisateur pour la Meilleure Direction de la Photographie, Rincon International Film Festival 2020
+Ines Feghouli - Meilleure actrice dans un court métrage : Catégorie 5-9 ans, Joey Awards 2020
+Meilleur court métrage, Meilleure direction de la photographie et Meilleur montage, Roma Prisma Independent Film Awards 2020
+Meilleur film du mois, European Cinematography Awards, October 2020
+Meilleur film du mois, New York Cinematography Awards, October 2020
+Meilleur court métrage, Canadian Cinematography Awards, October 2020
+Prix d'or du Meilleur court métrage, Social Justice Film Festival 2020</t>
         </is>
       </c>
     </row>
